--- a/biology/Médecine/Arthur_Fallot/Arthur_Fallot.xlsx
+++ b/biology/Médecine/Arthur_Fallot/Arthur_Fallot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étienne-Louis Arthur Fallot (né le 29 septembre 1850 à Sète[1], mort le 30 avril 1911 à Marseille[2]) est un anatomopathologiste français qui a décrit de manière détaillée certaines malformations cardiaques. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étienne-Louis Arthur Fallot (né le 29 septembre 1850 à Sète, mort le 30 avril 1911 à Marseille) est un anatomopathologiste français qui a décrit de manière détaillée certaines malformations cardiaques. 
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fallot commence en 1867 des études à l'École de médecine à Marseille[3]. Il écrit une thèse sur le pneumothorax soutenue devant la faculté de médecine de Montpellier[3] en 1876. En 1888, il publie dans « Contribution à l'anatomie pathologie de la maladie bleue (il fait ces recherches a cause de son neveu atteint de la maladie et cela a été sa base de recherche» une description de deux types de cardiopathies congénitales cyanogènes qui portent aujourd'hui son nom : la trilogie et la tétralogie de Fallot.
-La pentalogie de Fallot n'a pas été décrite par lui, mais comme cette cardiopathie ajoute une autre malformation à la tétralogie, son nom lui a aussi été associé[4] ; on l'appelle également « tétralogie de Fallot associée à une communication interauriculaire ».
-En 1888, Fallot devient également professeur d'hygiène et de médecine légale à Marseille[5]. Signe peut-être de sa reconnaissance tardive — et il publiait surtout dans le Marseille médical, on ne lui a jamais donné la Légion d'honneur.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fallot commence en 1867 des études à l'École de médecine à Marseille. Il écrit une thèse sur le pneumothorax soutenue devant la faculté de médecine de Montpellier en 1876. En 1888, il publie dans « Contribution à l'anatomie pathologie de la maladie bleue (il fait ces recherches a cause de son neveu atteint de la maladie et cela a été sa base de recherche» une description de deux types de cardiopathies congénitales cyanogènes qui portent aujourd'hui son nom : la trilogie et la tétralogie de Fallot.
+La pentalogie de Fallot n'a pas été décrite par lui, mais comme cette cardiopathie ajoute une autre malformation à la tétralogie, son nom lui a aussi été associé ; on l'appelle également « tétralogie de Fallot associée à une communication interauriculaire ».
+En 1888, Fallot devient également professeur d'hygiène et de médecine légale à Marseille. Signe peut-être de sa reconnaissance tardive — et il publiait surtout dans le Marseille médical, on ne lui a jamais donné la Légion d'honneur.
 </t>
         </is>
       </c>
@@ -546,17 +560,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Publications originales
-Essai sur le pneumothorax, 1876 — Thèse, Montpellier
-(avec Étienne Jourdan), « Notes sur deux cas de cancer généralisé », dans Marseille médical, 1879[6]
+          <t>Publications originales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Essai sur le pneumothorax, 1876 — Thèse, Montpellier
+(avec Étienne Jourdan), « Notes sur deux cas de cancer généralisé », dans Marseille médical, 1879
 La médecine légale, Marseille, 1883, 16 p. (OCLC 405153702)
 « Contribution à l'anatomie pathologique de la maladie bleue (cyanose cardiaque) », dans Marseille médical, 1888, vol. 25, p. 77-93, 138-158, 207-223, 270-286, 341-354, 403-420
 (en) « Tetralogy of Fallot : the centenary of the name. A new translation of the first of Fallot's papers », trad. S. P. Allwork, dans Eur J Cardiothorac Surg., 1988;2(6), p. 386-392
 Un cas d'hémiplégie hystérique mâle : avec contracture et atrophie musculaire, 1891, 23 p.
-(avec Émile Cassoute[7] et Joseph Buissou) « L'épidémie cholérique de la fontaine St-Martin », dans Marseille médical, 1894, p. 553
-Note sur un cas d'absence congénitale des muscles pectoraux, 1898
-Édition scientifique
-Fernand Girard[6], Leçons sur la phtisie, professées à l'École de médecine de Marseille par le Dr Girard, 1881 — « Recueillies par le Dr Fallot ».</t>
+(avec Émile Cassoute et Joseph Buissou) « L'épidémie cholérique de la fontaine St-Martin », dans Marseille médical, 1894, p. 553
+Note sur un cas d'absence congénitale des muscles pectoraux, 1898</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arthur_Fallot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arthur_Fallot</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Édition scientifique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fernand Girard, Leçons sur la phtisie, professées à l'École de médecine de Marseille par le Dr Girard, 1881 — « Recueillies par le Dr Fallot ».</t>
         </is>
       </c>
     </row>
